--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_4_3.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_4_3.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2042508.487875489</v>
+        <v>-2044589.229268788</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2365544.372062215</v>
+        <v>2365544.372062214</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -659,10 +659,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="D2" t="n">
-        <v>244.5627323611424</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -674,7 +674,7 @@
         <v>15.28796821707176</v>
       </c>
       <c r="H2" t="n">
-        <v>244.5627323611424</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,10 +704,10 @@
         <v>8.395781178313161</v>
       </c>
       <c r="R2" t="n">
-        <v>148.9413660216818</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>25.21392986180227</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,13 +716,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="X2" t="n">
-        <v>244.5627323611424</v>
+        <v>174.1552958834841</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -747,16 +747,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3356148920818</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.1591249337519</v>
       </c>
       <c r="I3" t="n">
-        <v>89.12455904281175</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>99.6672001609758</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>73.48766734379321</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1328769967189</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -798,7 +798,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>234.3815349749494</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -896,13 +896,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>29.98215790627999</v>
       </c>
       <c r="E5" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>80.92993499844636</v>
+        <v>206.9091621893709</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>144.0576027644701</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -950,13 +950,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.3382516189322</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -972,28 +972,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>132.618993537855</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.2940166796957</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>111.757373777286</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>87.69233988828964</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1020,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>97.08446202703756</v>
       </c>
       <c r="S6" t="n">
-        <v>91.43280728824115</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>199.9652070090748</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9381254702172</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1102,10 +1102,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>159.8350691069749</v>
       </c>
       <c r="T7" t="n">
-        <v>159.8350691069749</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1136,22 +1136,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>134.1216743057518</v>
       </c>
       <c r="G8" t="n">
-        <v>13.91438626613414</v>
+        <v>413.9143862661342</v>
       </c>
       <c r="H8" t="n">
-        <v>325.2563498869366</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>156.9514780432984</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,25 +1178,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>62.65809879609641</v>
+        <v>62.658098796096</v>
       </c>
       <c r="S8" t="n">
-        <v>177.3830154996371</v>
+        <v>177.383015499637</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.0183419716299</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>204.8564601333488</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1221,16 +1221,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>136.6006837567287</v>
       </c>
       <c r="H9" t="n">
-        <v>105.061237389684</v>
+        <v>105.0612373896839</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>63.82100898789174</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,13 +1257,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>54.03700212563235</v>
+        <v>54.03700212563214</v>
       </c>
       <c r="S9" t="n">
-        <v>157.8853663825613</v>
+        <v>157.8853663825612</v>
       </c>
       <c r="T9" t="n">
-        <v>197.1705887800983</v>
+        <v>187.1662946621939</v>
       </c>
       <c r="U9" t="n">
         <v>225.8925114621273</v>
@@ -1275,7 +1275,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>114.5204876800738</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -1291,25 +1291,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>103.2439505768229</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3682127838557</v>
       </c>
       <c r="H10" t="n">
         <v>156.6902115077868</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>48.29586553938</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1333,13 +1333,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>34.01383490015881</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>213.1634750959351</v>
+        <v>213.163475095935</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1540,10 +1540,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>34.7634718432972</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>219.9420810345225</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527407</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,13 +1658,13 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385018</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498009</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,16 +1762,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>105.6571329437494</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>25.37433807241516</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1822,7 +1822,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2056,19 +2056,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>207.6951870029948</v>
       </c>
       <c r="Y19" t="n">
-        <v>197.6869830550276</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2141,7 +2141,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>95.89668408033748</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>75.06705067831103</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2384,7 +2384,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2476,25 +2476,25 @@
         <v>161.430894639085</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>148.8457355557755</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>130.2143874753601</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>127.019962480079</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>148.0924829205253</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>130.5127428246838</v>
       </c>
       <c r="I25" t="n">
-        <v>92.01815992141967</v>
+        <v>14.67890275502316</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>179.5197244407509</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>203.1464755155369</v>
+        <v>203.146475515537</v>
       </c>
       <c r="U25" t="n">
-        <v>193.8041259302875</v>
+        <v>267.8362668557251</v>
       </c>
       <c r="V25" t="n">
-        <v>233.7365577809757</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>268.1219127937387</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>200.1835678092424</v>
+        <v>200.1835678092425</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2609,7 +2609,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>78.43116417739846</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>148.8457355557755</v>
@@ -2722,16 +2722,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>127.0199624800789</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>148.0924829205252</v>
+        <v>148.0924829205253</v>
       </c>
       <c r="H28" t="n">
-        <v>130.5127428246838</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>92.01815992141967</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,25 +2758,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>91.56326686094047</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>179.5197244407509</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>203.1464755155369</v>
       </c>
       <c r="U28" t="n">
-        <v>267.836266855725</v>
+        <v>267.8362668557251</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>109.0902509027987</v>
       </c>
       <c r="W28" t="n">
         <v>268.1219127937387</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>207.3085698461848</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2807,7 +2807,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113166</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
         <v>81.77913505274077</v>
@@ -2846,7 +2846,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952497999</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2947,25 +2947,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>161.430894639085</v>
+        <v>161.4308946390851</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>130.21438747536</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>127.0199624800789</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>126.6063199442825</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>91.56326686094057</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>179.519724440751</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>203.146475515537</v>
       </c>
       <c r="U31" t="n">
-        <v>203.9455660063715</v>
+        <v>267.8362668557251</v>
       </c>
       <c r="V31" t="n">
-        <v>233.7365577809757</v>
+        <v>233.7365577809758</v>
       </c>
       <c r="W31" t="n">
-        <v>268.1219127937387</v>
+        <v>268.1219127937388</v>
       </c>
       <c r="X31" t="n">
-        <v>207.3085698461848</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>200.1835678092424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H32" t="n">
         <v>305.2872491113177</v>
@@ -3080,7 +3080,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
         <v>251.078595249801</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3332,7 +3332,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857173</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3506,7 +3506,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3679,7 +3679,7 @@
         <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
         <v>42.28735533463134</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,19 +4025,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U44" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E46" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>546.8228391183679</v>
+        <v>299.789776127315</v>
       </c>
       <c r="C2" t="n">
-        <v>546.8228391183679</v>
+        <v>52.75671313626202</v>
       </c>
       <c r="D2" t="n">
-        <v>299.789776127315</v>
+        <v>52.75671313626202</v>
       </c>
       <c r="E2" t="n">
-        <v>299.789776127315</v>
+        <v>52.75671313626202</v>
       </c>
       <c r="F2" t="n">
-        <v>292.8442753781115</v>
+        <v>45.81121238705855</v>
       </c>
       <c r="G2" t="n">
-        <v>277.4018832396552</v>
+        <v>30.36882024860223</v>
       </c>
       <c r="H2" t="n">
         <v>30.36882024860223</v>
@@ -4352,28 +4352,28 @@
         <v>969.7703423957685</v>
       </c>
       <c r="R2" t="n">
-        <v>819.3245181314434</v>
+        <v>969.7703423957685</v>
       </c>
       <c r="S2" t="n">
-        <v>793.8559021094209</v>
+        <v>969.7703423957685</v>
       </c>
       <c r="T2" t="n">
-        <v>793.8559021094209</v>
+        <v>969.7703423957685</v>
       </c>
       <c r="U2" t="n">
-        <v>793.8559021094209</v>
+        <v>969.7703423957685</v>
       </c>
       <c r="V2" t="n">
-        <v>793.8559021094209</v>
+        <v>722.7372794047155</v>
       </c>
       <c r="W2" t="n">
-        <v>793.8559021094209</v>
+        <v>475.7042164136626</v>
       </c>
       <c r="X2" t="n">
-        <v>546.8228391183679</v>
+        <v>299.789776127315</v>
       </c>
       <c r="Y2" t="n">
-        <v>546.8228391183679</v>
+        <v>299.789776127315</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>432.9772646452209</v>
+        <v>741.5019042173481</v>
       </c>
       <c r="C3" t="n">
-        <v>258.5242353640939</v>
+        <v>567.0488749362211</v>
       </c>
       <c r="D3" t="n">
-        <v>109.5898257028427</v>
+        <v>418.1144652749698</v>
       </c>
       <c r="E3" t="n">
-        <v>109.5898257028427</v>
+        <v>418.1144652749698</v>
       </c>
       <c r="F3" t="n">
-        <v>109.5898257028427</v>
+        <v>271.5799073018547</v>
       </c>
       <c r="G3" t="n">
-        <v>109.5898257028427</v>
+        <v>132.8570639765196</v>
       </c>
       <c r="H3" t="n">
-        <v>109.5898257028427</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="I3" t="n">
         <v>19.56501858889139</v>
@@ -4413,46 +4413,46 @@
         <v>146.1858617037014</v>
       </c>
       <c r="L3" t="n">
-        <v>309.8793444333311</v>
+        <v>377.8476075409625</v>
       </c>
       <c r="M3" t="n">
-        <v>551.9964494708621</v>
+        <v>619.9647125784935</v>
       </c>
       <c r="N3" t="n">
-        <v>794.1135545083931</v>
+        <v>723.7203651970593</v>
       </c>
       <c r="O3" t="n">
-        <v>794.1135545083931</v>
+        <v>723.7203651970593</v>
       </c>
       <c r="P3" t="n">
-        <v>978.2509294445697</v>
+        <v>907.8577401332359</v>
       </c>
       <c r="Q3" t="n">
         <v>978.2509294445697</v>
       </c>
       <c r="R3" t="n">
-        <v>877.5769898880285</v>
+        <v>978.2509294445697</v>
       </c>
       <c r="S3" t="n">
-        <v>803.347022874096</v>
+        <v>978.2509294445697</v>
       </c>
       <c r="T3" t="n">
-        <v>601.192601665289</v>
+        <v>978.2509294445697</v>
       </c>
       <c r="U3" t="n">
-        <v>601.192601665289</v>
+        <v>978.2509294445697</v>
       </c>
       <c r="V3" t="n">
-        <v>601.192601665289</v>
+        <v>978.2509294445697</v>
       </c>
       <c r="W3" t="n">
-        <v>601.192601665289</v>
+        <v>741.5019042173481</v>
       </c>
       <c r="X3" t="n">
-        <v>601.192601665289</v>
+        <v>741.5019042173481</v>
       </c>
       <c r="Y3" t="n">
-        <v>601.192601665289</v>
+        <v>741.5019042173481</v>
       </c>
     </row>
     <row r="4">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>907.4554057415451</v>
+        <v>533.1900695737384</v>
       </c>
       <c r="C5" t="n">
-        <v>641.5543613459222</v>
+        <v>533.1900695737384</v>
       </c>
       <c r="D5" t="n">
-        <v>641.5543613459222</v>
+        <v>502.9050615875969</v>
       </c>
       <c r="E5" t="n">
-        <v>375.6533169502994</v>
+        <v>502.9050615875969</v>
       </c>
       <c r="F5" t="n">
-        <v>368.7078162010959</v>
+        <v>495.9595608383935</v>
       </c>
       <c r="G5" t="n">
-        <v>102.8067718054731</v>
+        <v>230.0585164427707</v>
       </c>
       <c r="H5" t="n">
-        <v>102.8067718054731</v>
+        <v>230.0585164427707</v>
       </c>
       <c r="I5" t="n">
         <v>21.05936271613333</v>
@@ -4589,28 +4589,28 @@
         <v>1052.968135806666</v>
       </c>
       <c r="R5" t="n">
-        <v>907.4554057415451</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="S5" t="n">
-        <v>907.4554057415451</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="T5" t="n">
-        <v>907.4554057415451</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="U5" t="n">
-        <v>907.4554057415451</v>
+        <v>799.0911139693611</v>
       </c>
       <c r="V5" t="n">
-        <v>907.4554057415451</v>
+        <v>799.0911139693611</v>
       </c>
       <c r="W5" t="n">
-        <v>907.4554057415451</v>
+        <v>533.1900695737384</v>
       </c>
       <c r="X5" t="n">
-        <v>907.4554057415451</v>
+        <v>533.1900695737384</v>
       </c>
       <c r="Y5" t="n">
-        <v>907.4554057415451</v>
+        <v>533.1900695737384</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>752.851466043489</v>
+        <v>356.4822992852552</v>
       </c>
       <c r="C6" t="n">
-        <v>578.3984367623621</v>
+        <v>356.4822992852552</v>
       </c>
       <c r="D6" t="n">
-        <v>578.3984367623621</v>
+        <v>356.4822992852552</v>
       </c>
       <c r="E6" t="n">
-        <v>419.1609817569066</v>
+        <v>222.5237199540885</v>
       </c>
       <c r="F6" t="n">
-        <v>272.6264237837916</v>
+        <v>222.5237199540885</v>
       </c>
       <c r="G6" t="n">
-        <v>133.9455988548061</v>
+        <v>222.5237199540885</v>
       </c>
       <c r="H6" t="n">
-        <v>21.05936271613333</v>
+        <v>109.6374838154158</v>
       </c>
       <c r="I6" t="n">
         <v>21.05936271613333</v>
       </c>
       <c r="J6" t="n">
-        <v>24.9501803568321</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="K6" t="n">
-        <v>24.9501803568321</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="L6" t="n">
-        <v>265.5537082516946</v>
+        <v>261.6628906109958</v>
       </c>
       <c r="M6" t="n">
-        <v>526.1633218638444</v>
+        <v>522.2725042231457</v>
       </c>
       <c r="N6" t="n">
-        <v>716.9050068346266</v>
+        <v>782.8821178352956</v>
       </c>
       <c r="O6" t="n">
-        <v>977.3180709271187</v>
+        <v>1043.295181927788</v>
       </c>
       <c r="P6" t="n">
-        <v>977.3180709271187</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="Q6" t="n">
         <v>1052.968135806666</v>
       </c>
       <c r="R6" t="n">
-        <v>1052.968135806666</v>
+        <v>954.9030226480426</v>
       </c>
       <c r="S6" t="n">
-        <v>960.611764808443</v>
+        <v>954.9030226480426</v>
       </c>
       <c r="T6" t="n">
-        <v>960.611764808443</v>
+        <v>752.9179650631185</v>
       </c>
       <c r="U6" t="n">
-        <v>960.611764808443</v>
+        <v>524.6976363053233</v>
       </c>
       <c r="V6" t="n">
-        <v>960.611764808443</v>
+        <v>524.6976363053233</v>
       </c>
       <c r="W6" t="n">
-        <v>960.611764808443</v>
+        <v>524.6976363053233</v>
       </c>
       <c r="X6" t="n">
-        <v>960.611764808443</v>
+        <v>524.6976363053233</v>
       </c>
       <c r="Y6" t="n">
-        <v>752.851466043489</v>
+        <v>524.6976363053233</v>
       </c>
     </row>
     <row r="7">
@@ -4750,7 +4750,7 @@
         <v>182.5089274706535</v>
       </c>
       <c r="S7" t="n">
-        <v>182.5089274706535</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="T7" t="n">
         <v>21.05936271613333</v>
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1707.10614501415</v>
+        <v>990.2927702799302</v>
       </c>
       <c r="C8" t="n">
-        <v>1707.10614501415</v>
+        <v>990.2927702799302</v>
       </c>
       <c r="D8" t="n">
-        <v>1348.840446407399</v>
+        <v>990.2927702799302</v>
       </c>
       <c r="E8" t="n">
-        <v>963.0521938091551</v>
+        <v>604.5045176816859</v>
       </c>
       <c r="F8" t="n">
-        <v>552.0662890195475</v>
+        <v>469.0280789890073</v>
       </c>
       <c r="G8" t="n">
-        <v>538.0113533971899</v>
+        <v>50.93273932624548</v>
       </c>
       <c r="H8" t="n">
-        <v>209.4695858346276</v>
+        <v>50.93273932624548</v>
       </c>
       <c r="I8" t="n">
-        <v>50.93273932624534</v>
+        <v>50.93273932624548</v>
       </c>
       <c r="J8" t="n">
-        <v>155.7591739168706</v>
+        <v>155.7591739168713</v>
       </c>
       <c r="K8" t="n">
-        <v>433.6116301659913</v>
+        <v>433.6116301659927</v>
       </c>
       <c r="L8" t="n">
-        <v>830.5887990800934</v>
+        <v>830.5887990800959</v>
       </c>
       <c r="M8" t="n">
-        <v>1288.908934281617</v>
+        <v>1288.908934281621</v>
       </c>
       <c r="N8" t="n">
-        <v>1740.013170883837</v>
+        <v>1740.013170883842</v>
       </c>
       <c r="O8" t="n">
-        <v>2120.790471866536</v>
+        <v>2120.790471866542</v>
       </c>
       <c r="P8" t="n">
-        <v>2408.100705753525</v>
+        <v>2408.100705753532</v>
       </c>
       <c r="Q8" t="n">
-        <v>2546.636966312267</v>
+        <v>2546.636966312274</v>
       </c>
       <c r="R8" t="n">
-        <v>2483.345957427321</v>
+        <v>2483.345957427329</v>
       </c>
       <c r="S8" t="n">
-        <v>2304.171194296374</v>
+        <v>2304.171194296383</v>
       </c>
       <c r="T8" t="n">
-        <v>2304.171194296374</v>
+        <v>2084.960747860393</v>
       </c>
       <c r="U8" t="n">
-        <v>2304.171194296374</v>
+        <v>2084.960747860393</v>
       </c>
       <c r="V8" t="n">
-        <v>2304.171194296374</v>
+        <v>1753.897860516822</v>
       </c>
       <c r="W8" t="n">
-        <v>2304.171194296374</v>
+        <v>1753.897860516822</v>
       </c>
       <c r="X8" t="n">
-        <v>2097.245476989961</v>
+        <v>1380.432102255742</v>
       </c>
       <c r="Y8" t="n">
-        <v>1707.10614501415</v>
+        <v>990.2927702799302</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>924.1951419001363</v>
+        <v>842.1262495713564</v>
       </c>
       <c r="C9" t="n">
-        <v>749.7421126190093</v>
+        <v>667.6732202902294</v>
       </c>
       <c r="D9" t="n">
-        <v>600.807702957758</v>
+        <v>518.7388106289782</v>
       </c>
       <c r="E9" t="n">
-        <v>441.5702479523025</v>
+        <v>359.5013556235226</v>
       </c>
       <c r="F9" t="n">
-        <v>295.0356899791874</v>
+        <v>359.5013556235226</v>
       </c>
       <c r="G9" t="n">
-        <v>157.0552013360271</v>
+        <v>221.5208669803623</v>
       </c>
       <c r="H9" t="n">
-        <v>50.93273932624534</v>
+        <v>115.3984049705806</v>
       </c>
       <c r="I9" t="n">
-        <v>50.93273932624534</v>
+        <v>50.93273932624548</v>
       </c>
       <c r="J9" t="n">
-        <v>119.673265952449</v>
+        <v>119.6732659524495</v>
       </c>
       <c r="K9" t="n">
-        <v>363.782617901433</v>
+        <v>363.782617901434</v>
       </c>
       <c r="L9" t="n">
-        <v>753.4221628487732</v>
+        <v>753.4221628487749</v>
       </c>
       <c r="M9" t="n">
-        <v>1260.092355332587</v>
+        <v>1260.092355332589</v>
       </c>
       <c r="N9" t="n">
-        <v>1795.879613554693</v>
+        <v>1795.879613554696</v>
       </c>
       <c r="O9" t="n">
-        <v>2219.604602039585</v>
+        <v>2219.604602039589</v>
       </c>
       <c r="P9" t="n">
-        <v>2383.36859539706</v>
+        <v>2542.678193876172</v>
       </c>
       <c r="Q9" t="n">
-        <v>2546.636966312267</v>
+        <v>2546.636966312274</v>
       </c>
       <c r="R9" t="n">
-        <v>2492.054135882335</v>
+        <v>2492.054135882343</v>
       </c>
       <c r="S9" t="n">
-        <v>2332.573967819142</v>
+        <v>2332.573967819149</v>
       </c>
       <c r="T9" t="n">
-        <v>2133.411756930154</v>
+        <v>2143.517104524004</v>
       </c>
       <c r="U9" t="n">
-        <v>1905.237502928005</v>
+        <v>1915.342850521855</v>
       </c>
       <c r="V9" t="n">
-        <v>1670.085394696262</v>
+        <v>1680.190742290113</v>
       </c>
       <c r="W9" t="n">
-        <v>1415.848037968061</v>
+        <v>1425.953385561911</v>
       </c>
       <c r="X9" t="n">
-        <v>1300.170777685158</v>
+        <v>1218.101885356378</v>
       </c>
       <c r="Y9" t="n">
-        <v>1092.410478920204</v>
+        <v>1010.341586591424</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>461.4055925900625</v>
+        <v>427.0481836000056</v>
       </c>
       <c r="C10" t="n">
-        <v>357.1187738255949</v>
+        <v>427.0481836000056</v>
       </c>
       <c r="D10" t="n">
-        <v>357.1187738255949</v>
+        <v>427.0481836000056</v>
       </c>
       <c r="E10" t="n">
-        <v>209.2056802432018</v>
+        <v>427.0481836000056</v>
       </c>
       <c r="F10" t="n">
-        <v>209.2056802432018</v>
+        <v>427.0481836000056</v>
       </c>
       <c r="G10" t="n">
-        <v>209.2056802432018</v>
+        <v>257.9893828082322</v>
       </c>
       <c r="H10" t="n">
-        <v>50.93273932624534</v>
+        <v>99.71644189127579</v>
       </c>
       <c r="I10" t="n">
-        <v>50.93273932624534</v>
+        <v>50.93273932624548</v>
       </c>
       <c r="J10" t="n">
-        <v>50.93273932624534</v>
+        <v>50.93273932624548</v>
       </c>
       <c r="K10" t="n">
-        <v>100.5165538294665</v>
+        <v>100.516553829467</v>
       </c>
       <c r="L10" t="n">
-        <v>219.4931998867071</v>
+        <v>219.493199886708</v>
       </c>
       <c r="M10" t="n">
-        <v>355.3265144918561</v>
+        <v>355.3265144918574</v>
       </c>
       <c r="N10" t="n">
-        <v>493.3646328999339</v>
+        <v>493.3646328999357</v>
       </c>
       <c r="O10" t="n">
-        <v>604.8488818521902</v>
+        <v>604.8488818521923</v>
       </c>
       <c r="P10" t="n">
-        <v>676.722234101108</v>
+        <v>676.7222341011105</v>
       </c>
       <c r="Q10" t="n">
-        <v>676.722234101108</v>
+        <v>642.3648251110511</v>
       </c>
       <c r="R10" t="n">
-        <v>676.722234101108</v>
+        <v>642.3648251110511</v>
       </c>
       <c r="S10" t="n">
-        <v>461.4055925900625</v>
+        <v>427.0481836000056</v>
       </c>
       <c r="T10" t="n">
-        <v>461.4055925900625</v>
+        <v>427.0481836000056</v>
       </c>
       <c r="U10" t="n">
-        <v>461.4055925900625</v>
+        <v>427.0481836000056</v>
       </c>
       <c r="V10" t="n">
-        <v>461.4055925900625</v>
+        <v>427.0481836000056</v>
       </c>
       <c r="W10" t="n">
-        <v>461.4055925900625</v>
+        <v>427.0481836000056</v>
       </c>
       <c r="X10" t="n">
-        <v>461.4055925900625</v>
+        <v>427.0481836000056</v>
       </c>
       <c r="Y10" t="n">
-        <v>461.4055925900625</v>
+        <v>427.0481836000056</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5115,28 +5115,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>901.674922584592</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M12" t="n">
-        <v>1332.091733170013</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N12" t="n">
-        <v>1661.954360834046</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>822.1480540508784</v>
+        <v>653.6713633309776</v>
       </c>
       <c r="C13" t="n">
-        <v>822.1480540508784</v>
+        <v>653.6713633309776</v>
       </c>
       <c r="D13" t="n">
-        <v>822.1480540508784</v>
+        <v>503.5547239186418</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684853</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705749</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H13" t="n">
         <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5206,7 +5206,7 @@
         <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1352.726549096195</v>
       </c>
       <c r="T13" t="n">
-        <v>1298.996260473455</v>
+        <v>1352.726549096195</v>
       </c>
       <c r="U13" t="n">
-        <v>1076.832542256765</v>
+        <v>1352.726549096195</v>
       </c>
       <c r="V13" t="n">
-        <v>822.1480540508784</v>
+        <v>1352.726549096195</v>
       </c>
       <c r="W13" t="n">
-        <v>822.1480540508784</v>
+        <v>1063.309379059235</v>
       </c>
       <c r="X13" t="n">
-        <v>822.1480540508784</v>
+        <v>835.3198281612173</v>
       </c>
       <c r="Y13" t="n">
-        <v>822.1480540508784</v>
+        <v>835.3198281612173</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805468</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5294,13 +5294,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231264</v>
@@ -5309,19 +5309,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5352,31 +5352,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.043068977054</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>1999.905696641086</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2279.445761859783</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>203.9414681711439</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C16" t="n">
-        <v>203.9414681711439</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D16" t="n">
-        <v>203.9414681711439</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5443,7 +5443,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5452,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1473.285626040312</v>
       </c>
       <c r="T16" t="n">
-        <v>964.1357418247858</v>
+        <v>1249.500210829817</v>
       </c>
       <c r="U16" t="n">
-        <v>675.0071030383442</v>
+        <v>960.3715720433757</v>
       </c>
       <c r="V16" t="n">
-        <v>675.0071030383442</v>
+        <v>705.687083837489</v>
       </c>
       <c r="W16" t="n">
-        <v>385.5899330013835</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="X16" t="n">
-        <v>385.5899330013835</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="Y16" t="n">
-        <v>385.5899330013835</v>
+        <v>416.2699138005285</v>
       </c>
     </row>
     <row r="17">
@@ -5498,16 +5498,16 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
@@ -5516,7 +5516,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5531,7 +5531,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5546,13 +5546,13 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
         <v>3205.060556590537</v>
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C18" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D18" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E18" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>2479.815397437607</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>2628.885081639667</v>
+        <v>498.9056400965599</v>
       </c>
       <c r="L18" t="n">
-        <v>2875.650209546131</v>
+        <v>745.6707680030239</v>
       </c>
       <c r="M18" t="n">
-        <v>3644.018355938592</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N18" t="n">
-        <v>3973.880983602625</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O18" t="n">
-        <v>4253.421048821322</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P18" t="n">
-        <v>4773.721670557069</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S18" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T18" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U18" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V18" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W18" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X18" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y18" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="19">
@@ -5647,10 +5647,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
         <v>97.21709146028584</v>
@@ -5671,22 +5671,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241959</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5701,22 +5701,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>964.1357418247856</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U19" t="n">
-        <v>675.0071030383436</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V19" t="n">
-        <v>675.0071030383436</v>
+        <v>709.4512536188989</v>
       </c>
       <c r="W19" t="n">
-        <v>675.0071030383436</v>
+        <v>709.4512536188989</v>
       </c>
       <c r="X19" t="n">
-        <v>447.0175521403263</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y19" t="n">
-        <v>247.3337308726216</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
@@ -5792,10 +5792,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5829,28 +5829,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1208.995055864553</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1725.969903867171</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2005.509969085868</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>943.2631727657039</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>774.3269898377969</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>624.2103504254608</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5914,7 +5914,7 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M22" t="n">
         <v>779.0639759471194</v>
@@ -5935,25 +5935,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T22" t="n">
-        <v>1187.92115703528</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U22" t="n">
-        <v>898.7925182488386</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V22" t="n">
-        <v>644.1080300429518</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="W22" t="n">
-        <v>354.6908600059912</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="X22" t="n">
-        <v>354.6908600059912</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="Y22" t="n">
-        <v>278.8655562905255</v>
+        <v>943.2631727657039</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J23" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6054,37 +6054,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>485.4047026089419</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341673</v>
+        <v>732.1698305154059</v>
       </c>
       <c r="M24" t="n">
-        <v>932.1883377003201</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N24" t="n">
-        <v>1736.599915964471</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O24" t="n">
-        <v>2016.139981183168</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>190.1647277445481</v>
+        <v>803.6455904617471</v>
       </c>
       <c r="C25" t="n">
-        <v>190.1647277445481</v>
+        <v>653.2963626276304</v>
       </c>
       <c r="D25" t="n">
-        <v>190.1647277445481</v>
+        <v>521.7666783090849</v>
       </c>
       <c r="E25" t="n">
-        <v>190.1647277445481</v>
+        <v>521.7666783090849</v>
       </c>
       <c r="F25" t="n">
-        <v>190.1647277445481</v>
+        <v>393.463685904965</v>
       </c>
       <c r="G25" t="n">
-        <v>190.1647277445481</v>
+        <v>243.8753193185757</v>
       </c>
       <c r="H25" t="n">
-        <v>190.1647277445481</v>
+        <v>112.0442659603092</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J25" t="n">
         <v>127.8168586116195</v>
@@ -6151,7 +6151,7 @@
         <v>296.2193375436548</v>
       </c>
       <c r="L25" t="n">
-        <v>562.1484572422079</v>
+        <v>562.1484572422078</v>
       </c>
       <c r="M25" t="n">
         <v>851.9322746968144</v>
@@ -6166,31 +6166,31 @@
         <v>1587.602350397713</v>
       </c>
       <c r="Q25" t="n">
-        <v>1644.652868057293</v>
+        <v>1644.652868057292</v>
       </c>
       <c r="R25" t="n">
-        <v>1644.652868057293</v>
+        <v>1644.652868057292</v>
       </c>
       <c r="S25" t="n">
-        <v>1463.319813066635</v>
+        <v>1644.652868057292</v>
       </c>
       <c r="T25" t="n">
-        <v>1258.121352949931</v>
+        <v>1439.454407940588</v>
       </c>
       <c r="U25" t="n">
-        <v>1062.359609586004</v>
+        <v>1168.912724247937</v>
       </c>
       <c r="V25" t="n">
-        <v>826.2620764739077</v>
+        <v>1168.912724247937</v>
       </c>
       <c r="W25" t="n">
-        <v>555.4318615307374</v>
+        <v>1168.912724247937</v>
       </c>
       <c r="X25" t="n">
-        <v>555.4318615307374</v>
+        <v>1168.912724247937</v>
       </c>
       <c r="Y25" t="n">
-        <v>353.2262374809975</v>
+        <v>966.7071001981967</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6260,16 +6260,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6306,22 +6306,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>1026.505047571597</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M27" t="n">
-        <v>1333.825180851558</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N27" t="n">
-        <v>1843.901542059518</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O27" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3966.43807288444</v>
+        <v>397.1546858807917</v>
       </c>
       <c r="C28" t="n">
-        <v>3816.088845050323</v>
+        <v>246.805458046675</v>
       </c>
       <c r="D28" t="n">
-        <v>3816.088845050323</v>
+        <v>246.805458046675</v>
       </c>
       <c r="E28" t="n">
-        <v>3816.088845050323</v>
+        <v>246.805458046675</v>
       </c>
       <c r="F28" t="n">
-        <v>3687.785852646203</v>
+        <v>246.805458046675</v>
       </c>
       <c r="G28" t="n">
-        <v>3538.197486059814</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H28" t="n">
-        <v>3406.366432701548</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I28" t="n">
-        <v>3313.418796417285</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J28" t="n">
-        <v>3344.018563568619</v>
+        <v>127.8168586116195</v>
       </c>
       <c r="K28" t="n">
-        <v>3512.421042500654</v>
+        <v>296.2193375436547</v>
       </c>
       <c r="L28" t="n">
-        <v>3778.350162199207</v>
+        <v>562.1484572422077</v>
       </c>
       <c r="M28" t="n">
-        <v>4068.133979653814</v>
+        <v>851.9322746968141</v>
       </c>
       <c r="N28" t="n">
-        <v>4356.895163368786</v>
+        <v>1140.693458411786</v>
       </c>
       <c r="O28" t="n">
-        <v>4608.987216061606</v>
+        <v>1392.785511104606</v>
       </c>
       <c r="P28" t="n">
-        <v>4803.804055354713</v>
+        <v>1587.602350397713</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014292</v>
+        <v>1644.652868057292</v>
       </c>
       <c r="R28" t="n">
-        <v>4768.366424669908</v>
+        <v>1644.652868057292</v>
       </c>
       <c r="S28" t="n">
-        <v>4587.03336967925</v>
+        <v>1463.319813066635</v>
       </c>
       <c r="T28" t="n">
-        <v>4587.03336967925</v>
+        <v>1258.121352949931</v>
       </c>
       <c r="U28" t="n">
-        <v>4316.491685986599</v>
+        <v>987.5796692572792</v>
       </c>
       <c r="V28" t="n">
-        <v>4316.491685986599</v>
+        <v>877.3874966281892</v>
       </c>
       <c r="W28" t="n">
-        <v>4045.661471043429</v>
+        <v>606.5572816850188</v>
       </c>
       <c r="X28" t="n">
-        <v>4045.661471043429</v>
+        <v>397.1546858807917</v>
       </c>
       <c r="Y28" t="n">
-        <v>4045.661471043429</v>
+        <v>397.1546858807917</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
@@ -6494,19 +6494,19 @@
         <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6540,28 +6540,28 @@
         <v>97.21709146028583</v>
       </c>
       <c r="J30" t="n">
-        <v>167.8887746690279</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K30" t="n">
-        <v>316.9584588710877</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L30" t="n">
-        <v>563.7235867775518</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M30" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>357.0497681829514</v>
+        <v>225.1022631211773</v>
       </c>
       <c r="C31" t="n">
-        <v>357.0497681829514</v>
+        <v>225.1022631211773</v>
       </c>
       <c r="D31" t="n">
-        <v>225.5200838644059</v>
+        <v>225.1022631211773</v>
       </c>
       <c r="E31" t="n">
-        <v>225.5200838644059</v>
+        <v>225.1022631211773</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028583</v>
+        <v>225.1022631211773</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028583</v>
+        <v>225.1022631211773</v>
       </c>
       <c r="H31" t="n">
         <v>97.21709146028583</v>
@@ -6619,52 +6619,52 @@
         <v>97.21709146028583</v>
       </c>
       <c r="J31" t="n">
-        <v>127.8168586116195</v>
+        <v>127.8168586116194</v>
       </c>
       <c r="K31" t="n">
-        <v>296.2193375436547</v>
+        <v>296.2193375436545</v>
       </c>
       <c r="L31" t="n">
-        <v>562.1484572422078</v>
+        <v>562.1484572422074</v>
       </c>
       <c r="M31" t="n">
-        <v>851.9322746968144</v>
+        <v>851.932274696814</v>
       </c>
       <c r="N31" t="n">
-        <v>1140.693458411786</v>
+        <v>1140.693458411785</v>
       </c>
       <c r="O31" t="n">
         <v>1392.785511104606</v>
       </c>
       <c r="P31" t="n">
-        <v>1587.602350397713</v>
+        <v>1587.602350397712</v>
       </c>
       <c r="Q31" t="n">
-        <v>1644.652868057293</v>
+        <v>1644.652868057292</v>
       </c>
       <c r="R31" t="n">
-        <v>1644.652868057293</v>
+        <v>1552.164719712908</v>
       </c>
       <c r="S31" t="n">
-        <v>1644.652868057293</v>
+        <v>1370.83166472225</v>
       </c>
       <c r="T31" t="n">
-        <v>1644.652868057293</v>
+        <v>1165.633204605546</v>
       </c>
       <c r="U31" t="n">
-        <v>1438.647245828635</v>
+        <v>895.0915209128939</v>
       </c>
       <c r="V31" t="n">
-        <v>1202.549712716538</v>
+        <v>658.9939878007972</v>
       </c>
       <c r="W31" t="n">
-        <v>931.7194977733678</v>
+        <v>388.1637728576268</v>
       </c>
       <c r="X31" t="n">
-        <v>722.3169019691408</v>
+        <v>388.1637728576268</v>
       </c>
       <c r="Y31" t="n">
-        <v>520.1112779194009</v>
+        <v>388.1637728576268</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G32" t="n">
         <v>488.193237080547</v>
@@ -6695,10 +6695,10 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
         <v>889.2841917514082</v>
@@ -6716,34 +6716,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6765,40 +6765,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J33" t="n">
-        <v>166.5495793176475</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K33" t="n">
-        <v>315.6192635197074</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>929.516333276596</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M33" t="n">
-        <v>1236.836466556558</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N33" t="n">
-        <v>2041.248044820708</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O33" t="n">
-        <v>2320.788110039405</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P33" t="n">
-        <v>2525.810590821615</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108323</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229664</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506717</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083197</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504504</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103126</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982969</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028586</v>
@@ -6859,10 +6859,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6880,7 +6880,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
         <v>1865.165908942116</v>
@@ -6895,13 +6895,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045201</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010309</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="35">
@@ -6932,19 +6932,19 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N35" t="n">
         <v>3183.709822619127</v>
@@ -6953,34 +6953,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7011,22 +7011,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>659.3731057211721</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M36" t="n">
-        <v>966.6932390011339</v>
+        <v>1595.645765494011</v>
       </c>
       <c r="N36" t="n">
-        <v>1771.104817265285</v>
+        <v>1925.508393158044</v>
       </c>
       <c r="O36" t="n">
         <v>2331.418122136705</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108333</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G37" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>177.05035515254</v>
@@ -7099,7 +7099,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7126,19 +7126,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7169,37 +7169,37 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
@@ -7208,16 +7208,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7248,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1651.324348736746</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2320.788110039405</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108319</v>
       </c>
       <c r="C40" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229663</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506717</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083197</v>
       </c>
       <c r="F40" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504509</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103126</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982969</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525397</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254954</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7354,7 +7354,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S40" t="n">
         <v>1865.165908942116</v>
@@ -7369,13 +7369,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045196</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010305</v>
       </c>
     </row>
     <row r="41">
@@ -7406,49 +7406,49 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
         <v>3205.060556590537</v>
@@ -7485,7 +7485,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
@@ -7494,16 +7494,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>1206.718781115523</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7552,19 +7552,19 @@
         <v>478.0475988506723</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F43" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504509</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103126</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J43" t="n">
         <v>177.05035515254</v>
@@ -7576,25 +7576,25 @@
         <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N43" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O43" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P43" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T43" t="n">
         <v>1710.200584771663</v>
@@ -7643,22 +7643,22 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
@@ -7667,19 +7667,19 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
         <v>3931.294970121731</v>
@@ -7722,28 +7722,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M45" t="n">
-        <v>1247.466478653857</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N45" t="n">
-        <v>2051.878056918008</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7786,31 +7786,31 @@
         <v>559.3441472229673</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E46" t="n">
         <v>398.9545963083206</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525401</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254953</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649688</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7825,28 +7825,28 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986524</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T46" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
         <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
-        <v>1083.430560862498</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045214</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y46" t="n">
         <v>772.2886129010318</v>
@@ -8061,13 +8061,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>302.1855340836295</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>384.6945110063437</v>
+        <v>384.6945110063436</v>
       </c>
       <c r="N3" t="n">
-        <v>373.8491954283779</v>
+        <v>234.0901525809383</v>
       </c>
       <c r="O3" t="n">
         <v>140.7160931202018</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>138.9730561082392</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>122.1609165114202</v>
       </c>
       <c r="K6" t="n">
         <v>129.8481964236088</v>
@@ -8304,16 +8304,16 @@
         <v>392.8337743093847</v>
       </c>
       <c r="N6" t="n">
-        <v>311.1358299865011</v>
+        <v>381.709495280812</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>124.5219861368073</v>
+        <v>134.292646620523</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>133.663080786811</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8547,10 +8547,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>157.5439822974039</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>49.15850139331814</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,31 +8766,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M12" t="n">
-        <v>124.3400780863228</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,16 +9003,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9021,13 +9021,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>41.75994765618373</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,10 +9240,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>104.8749102765748</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>87.16935584025435</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9258,10 +9258,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445218</v>
@@ -9477,31 +9477,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>189.0022427662469</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,16 +9714,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>73.5320452467009</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>91.23759968302147</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
@@ -9732,10 +9732,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445218</v>
@@ -9954,16 +9954,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>127.6461250100648</v>
       </c>
       <c r="N27" t="n">
-        <v>182.0340742867952</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9972,7 +9972,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445218</v>
@@ -10188,31 +10188,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>29.47535963978227</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,16 +10425,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>28.1226370626304</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
@@ -10449,7 +10449,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10665,19 +10665,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>283.6093329825492</v>
+        <v>127.646125010065</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -10686,7 +10686,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10841,10 +10841,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599058</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,31 +10899,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>18.73797368291338</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11072,7 +11072,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627462</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11142,7 +11142,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>288.409182577675</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11300,7 +11300,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504507</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
@@ -11373,16 +11373,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>19.14409596997052</v>
+        <v>199.6230805871097</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
@@ -11394,10 +11394,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23428,10 +23428,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,25 +23461,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>163.1573381403061</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>66.29527136405487</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>40.77682970281977</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>166.4935684633775</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642719</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>172.546471911188</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23944,19 +23944,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>18.01446838604235</v>
       </c>
       <c r="Y19" t="n">
-        <v>20.89767029706715</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>50.5372785662317</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,25 +24175,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>143.5176026737837</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>148.8457355557755</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>130.21438747536</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>128.0328771037168</v>
+        <v>128.0328771037169</v>
       </c>
       <c r="F25" t="n">
-        <v>127.0199624800789</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>148.0924829205252</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>130.5127428246838</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>77.33925716639656</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,25 +24409,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>91.56326686094047</v>
+        <v>91.56326686094053</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>179.519724440751</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>74.03214092543747</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>233.7365577809757</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>268.1219127937387</v>
       </c>
       <c r="X25" t="n">
-        <v>207.3085698461848</v>
+        <v>207.3085698461849</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>82.9997304616865</v>
+        <v>161.430894639085</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24607,19 +24607,19 @@
         <v>130.21438747536</v>
       </c>
       <c r="E28" t="n">
-        <v>128.0328771037168</v>
+        <v>128.0328771037169</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>127.0199624800789</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>130.5127428246838</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>92.0181599214197</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,28 +24646,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>91.5632668609405</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>203.1464755155369</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>233.7365577809757</v>
+        <v>124.646306878177</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>207.3085698461848</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>200.1835678092424</v>
+        <v>200.1835678092425</v>
       </c>
     </row>
     <row r="29">
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>148.8457355557755</v>
+        <v>148.8457355557756</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>130.2143874753601</v>
       </c>
       <c r="E31" t="n">
-        <v>128.0328771037168</v>
+        <v>128.0328771037169</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>127.019962480079</v>
       </c>
       <c r="G31" t="n">
-        <v>148.0924829205252</v>
+        <v>148.0924829205254</v>
       </c>
       <c r="H31" t="n">
-        <v>130.5127428246838</v>
+        <v>3.906422880401294</v>
       </c>
       <c r="I31" t="n">
-        <v>92.01815992141967</v>
+        <v>92.01815992141977</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,16 +24883,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>91.56326686094047</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>179.5197244407509</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>203.1464755155369</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>63.89070084935383</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24901,10 +24901,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>207.3085698461849</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>200.1835678092426</v>
       </c>
     </row>
     <row r="32">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1338463.101983051</v>
+        <v>1338463.101983052</v>
       </c>
     </row>
     <row r="6">
@@ -26314,46 +26314,46 @@
         <v>61578.13273982125</v>
       </c>
       <c r="C2" t="n">
-        <v>61578.13273982125</v>
+        <v>61578.13273982123</v>
       </c>
       <c r="D2" t="n">
-        <v>61578.13273982123</v>
+        <v>61578.13273982122</v>
       </c>
       <c r="E2" t="n">
-        <v>58654.3589606563</v>
+        <v>58654.35896065631</v>
       </c>
       <c r="F2" t="n">
         <v>58654.3589606563</v>
       </c>
       <c r="G2" t="n">
-        <v>58654.3589606563</v>
+        <v>58654.35896065631</v>
       </c>
       <c r="H2" t="n">
-        <v>58654.35896065629</v>
+        <v>58654.35896065628</v>
       </c>
       <c r="I2" t="n">
+        <v>59444.01284103436</v>
+      </c>
+      <c r="J2" t="n">
         <v>59444.01284103435</v>
-      </c>
-      <c r="J2" t="n">
-        <v>59444.01284103436</v>
       </c>
       <c r="K2" t="n">
         <v>59444.01284103435</v>
       </c>
       <c r="L2" t="n">
-        <v>61578.13273982126</v>
+        <v>61578.13273982127</v>
       </c>
       <c r="M2" t="n">
-        <v>61578.13273982126</v>
+        <v>61578.13273982127</v>
       </c>
       <c r="N2" t="n">
-        <v>61578.13273982127</v>
+        <v>61578.1327398213</v>
       </c>
       <c r="O2" t="n">
-        <v>61578.13273982129</v>
+        <v>61578.1327398213</v>
       </c>
       <c r="P2" t="n">
-        <v>61578.13273982125</v>
+        <v>61578.13273982128</v>
       </c>
     </row>
     <row r="3">
@@ -26369,37 +26369,37 @@
         <v>23645.34018189508</v>
       </c>
       <c r="D3" t="n">
-        <v>392050.2114169281</v>
+        <v>392050.21141693</v>
       </c>
       <c r="E3" t="n">
-        <v>562418.1991553673</v>
+        <v>562418.1991553653</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>5.552465154323726e-11</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>14720.86843428184</v>
+        <v>14720.86843428182</v>
       </c>
       <c r="J3" t="n">
-        <v>63988.37154589876</v>
+        <v>63988.37154589882</v>
       </c>
       <c r="K3" t="n">
         <v>4807.454491749968</v>
       </c>
       <c r="L3" t="n">
-        <v>134293.1781648039</v>
+        <v>134293.1781648044</v>
       </c>
       <c r="M3" t="n">
-        <v>144178.071115143</v>
+        <v>144178.0711151425</v>
       </c>
       <c r="N3" t="n">
-        <v>14720.86843428186</v>
+        <v>14720.86843428182</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,19 +26415,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>311285.4917481206</v>
+        <v>311285.4917481207</v>
       </c>
       <c r="C4" t="n">
         <v>304469.3167485496</v>
       </c>
       <c r="D4" t="n">
-        <v>186365.8251915761</v>
+        <v>186365.8251915756</v>
       </c>
       <c r="E4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="F4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230238</v>
       </c>
       <c r="G4" t="n">
         <v>29303.54555230233</v>
@@ -26436,28 +26436,28 @@
         <v>29303.54555230234</v>
       </c>
       <c r="I4" t="n">
-        <v>35358.41972370118</v>
+        <v>35358.4197237012</v>
       </c>
       <c r="J4" t="n">
         <v>35358.41972370117</v>
       </c>
       <c r="K4" t="n">
-        <v>35358.41972370121</v>
+        <v>35358.41972370118</v>
       </c>
       <c r="L4" t="n">
-        <v>51722.33279362281</v>
+        <v>51722.33279362286</v>
       </c>
       <c r="M4" t="n">
-        <v>51722.33279362277</v>
+        <v>51722.33279362282</v>
       </c>
       <c r="N4" t="n">
-        <v>51722.33279362277</v>
+        <v>51722.33279362282</v>
       </c>
       <c r="O4" t="n">
-        <v>51722.33279362278</v>
+        <v>51722.33279362282</v>
       </c>
       <c r="P4" t="n">
-        <v>51722.33279362279</v>
+        <v>51722.33279362282</v>
       </c>
     </row>
     <row r="5">
@@ -26473,10 +26473,10 @@
         <v>50134.40740683334</v>
       </c>
       <c r="D5" t="n">
-        <v>79865.16362346613</v>
+        <v>79865.16362346627</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
@@ -26485,31 +26485,31 @@
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>93534.28680921867</v>
+        <v>93534.28680921865</v>
       </c>
       <c r="J5" t="n">
         <v>93534.28680921867</v>
       </c>
       <c r="K5" t="n">
-        <v>93534.28680921867</v>
+        <v>93534.28680921865</v>
       </c>
       <c r="L5" t="n">
+        <v>97715.10582002538</v>
+      </c>
+      <c r="M5" t="n">
         <v>97715.10582002539</v>
       </c>
-      <c r="M5" t="n">
-        <v>97715.1058200254</v>
-      </c>
       <c r="N5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26525,37 +26525,37 @@
         <v>-316670.9315974567</v>
       </c>
       <c r="D6" t="n">
-        <v>-596703.0674921491</v>
+        <v>-596703.0674921507</v>
       </c>
       <c r="E6" t="n">
-        <v>-625054.71169573</v>
+        <v>-625152.1708217</v>
       </c>
       <c r="F6" t="n">
-        <v>-62636.51254036266</v>
+        <v>-62733.97166633494</v>
       </c>
       <c r="G6" t="n">
-        <v>-62636.51254036265</v>
+        <v>-62733.97166633475</v>
       </c>
       <c r="H6" t="n">
-        <v>-62636.51254036271</v>
+        <v>-62733.97166633484</v>
       </c>
       <c r="I6" t="n">
-        <v>-84169.56212616735</v>
+        <v>-84240.69945612687</v>
       </c>
       <c r="J6" t="n">
-        <v>-133437.0652377842</v>
+        <v>-133508.2025677439</v>
       </c>
       <c r="K6" t="n">
-        <v>-74256.14818363549</v>
+        <v>-74327.28551359501</v>
       </c>
       <c r="L6" t="n">
-        <v>-222152.4840386309</v>
+        <v>-222152.4840386313</v>
       </c>
       <c r="M6" t="n">
-        <v>-232037.3769889699</v>
+        <v>-232037.3769889694</v>
       </c>
       <c r="N6" t="n">
-        <v>-102580.1743081088</v>
+        <v>-102580.1743081087</v>
       </c>
       <c r="O6" t="n">
         <v>-87859.3058738269</v>
@@ -26695,37 +26695,37 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.940581442904658e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285228</v>
       </c>
       <c r="J2" t="n">
-        <v>18.40108554285233</v>
+        <v>18.4010855428523</v>
       </c>
       <c r="K2" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285223</v>
       </c>
       <c r="L2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="M2" t="n">
         <v>68.13189012964065</v>
-      </c>
-      <c r="M2" t="n">
-        <v>68.13189012964062</v>
       </c>
       <c r="N2" t="n">
         <v>68.13189012964065</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="3">
@@ -26741,13 +26741,13 @@
         <v>23.01338268678938</v>
       </c>
       <c r="D3" t="n">
-        <v>345.3523731889758</v>
+        <v>345.3523731889774</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
@@ -26768,16 +26768,16 @@
         <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26793,7 @@
         <v>263.2420339516666</v>
       </c>
       <c r="D4" t="n">
-        <v>636.6592415780667</v>
+        <v>636.6592415780685</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26917,16 +26917,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.940581442904658e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-6.940581442904658e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>18.4010855428523</v>
+        <v>18.40108554285228</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26935,13 +26935,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>49.73080458678832</v>
+        <v>49.73080458678837</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285228</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26963,10 +26963,10 @@
         <v>19.33951979354706</v>
       </c>
       <c r="D3" t="n">
-        <v>322.3389905021864</v>
+        <v>322.338990502188</v>
       </c>
       <c r="E3" t="n">
-        <v>485.0300322651245</v>
+        <v>485.0300322651228</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27015,10 +27015,10 @@
         <v>18.67930159052418</v>
       </c>
       <c r="D4" t="n">
-        <v>373.4172076264001</v>
+        <v>373.4172076264019</v>
       </c>
       <c r="E4" t="n">
-        <v>578.5544016755066</v>
+        <v>578.5544016755046</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>244.5627323611425</v>
+        <v>244.5627323611427</v>
       </c>
       <c r="K4" t="n">
         <v>18.67930159052395</v>
       </c>
       <c r="L4" t="n">
-        <v>373.4172076264003</v>
+        <v>373.4172076264019</v>
       </c>
       <c r="M4" t="n">
-        <v>578.5544016755068</v>
+        <v>578.5544016755048</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,16 +27154,16 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.940581442904658e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>18.4010855428523</v>
+        <v>18.40108554285228</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27261,10 +27261,10 @@
         <v>18.67930159052418</v>
       </c>
       <c r="L4" t="n">
-        <v>373.4172076264001</v>
+        <v>373.4172076264019</v>
       </c>
       <c r="M4" t="n">
-        <v>578.5544016755066</v>
+        <v>578.5544016755046</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,10 +27379,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>120.7101594098651</v>
       </c>
       <c r="D2" t="n">
-        <v>110.1203092595405</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27394,7 +27394,7 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>94.76081368083408</v>
+        <v>339.3235460419765</v>
       </c>
       <c r="I2" t="n">
         <v>209.9064962068211</v>
@@ -27424,10 +27424,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>148.9413660216818</v>
       </c>
       <c r="S2" t="n">
-        <v>183.4695843448259</v>
+        <v>208.6835142066282</v>
       </c>
       <c r="T2" t="n">
         <v>223.0311969618593</v>
@@ -27436,13 +27436,13 @@
         <v>251.3444713639914</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>83.18952610899248</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>104.6782363562706</v>
       </c>
       <c r="X2" t="n">
-        <v>125.1683683173266</v>
+        <v>195.5758047949849</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27467,16 +27467,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3356148920818</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.1591249337519</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.12455904281175</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,13 +27503,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>99.6672001609758</v>
       </c>
       <c r="S3" t="n">
-        <v>98.04872253973441</v>
+        <v>171.5363898835276</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1328769967189</v>
       </c>
       <c r="U3" t="n">
         <v>225.9408621947163</v>
@@ -27518,7 +27518,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>17.3134481859702</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27616,13 +27616,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>102.030857819341</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>324.7008837144029</v>
       </c>
       <c r="E5" t="n">
-        <v>118.6883361205952</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>338.5273214908784</v>
       </c>
       <c r="I5" t="n">
-        <v>125.9792271909246</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>4.097100052852153</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>144.0576027644701</v>
       </c>
       <c r="S5" t="n">
         <v>206.9118586999128</v>
@@ -27670,13 +27670,13 @@
         <v>222.6908602868995</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3382516189322</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>85.99893476574641</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27692,28 +27692,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>25.02608691754591</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.2940166796957</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>87.69233988828964</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,16 +27740,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>97.08446202703756</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>79.3309140450443</v>
+        <v>170.7637213332854</v>
       </c>
       <c r="T6" t="n">
-        <v>199.9652070090748</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9381254702172</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -27761,7 +27761,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27822,10 +27822,10 @@
         <v>175.4274210366964</v>
       </c>
       <c r="S7" t="n">
-        <v>223.2933741908973</v>
+        <v>63.45830508392231</v>
       </c>
       <c r="T7" t="n">
-        <v>67.93320409404768</v>
+        <v>227.7682732010226</v>
       </c>
       <c r="U7" t="n">
         <v>286.3167657450791</v>
@@ -27856,22 +27856,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>272.7543714359597</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>325.2563498869366</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>156.9514780432982</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,19 +27904,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.0183419716299</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2345848079164</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>164.8746405451202</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -27941,7 +27941,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -27950,7 +27950,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>63.82100898789187</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27983,7 +27983,7 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>10.00429411790441</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -27995,7 +27995,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>91.2524975234037</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -28011,28 +28011,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>64.00287052180489</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3682127838557</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>136.7221855746496</v>
+        <v>88.42632003526947</v>
       </c>
       <c r="J10" t="n">
-        <v>49.32958329223565</v>
+        <v>49.32958329223545</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>34.01383490015905</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>149.2915415772896</v>
+        <v>149.2915415772895</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>6.940581442904658e-14</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>6.940581442904658e-14</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>6.940581442904658e-14</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>6.940581442904658e-14</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>6.940581442904658e-14</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>6.940581442904658e-14</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>6.940581442904658e-14</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>6.940581442904658e-14</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>6.940581442904658e-14</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>6.940581442904658e-14</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>6.940581442904658e-14</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>6.940581442904658e-14</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>6.940581442904658e-14</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>6.940581442904658e-14</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>6.940581442904658e-14</v>
       </c>
     </row>
     <row r="15">
@@ -28819,49 +28819,49 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
         <v>2.842170943040401e-13</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -29056,7 +29056,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29104,7 +29104,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285228</v>
       </c>
       <c r="C25" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285228</v>
       </c>
       <c r="D25" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285228</v>
       </c>
       <c r="E25" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285228</v>
       </c>
       <c r="F25" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285228</v>
       </c>
       <c r="G25" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285228</v>
       </c>
       <c r="H25" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285228</v>
       </c>
       <c r="I25" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285228</v>
       </c>
       <c r="J25" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285228</v>
       </c>
       <c r="K25" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285228</v>
       </c>
       <c r="L25" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285228</v>
       </c>
       <c r="M25" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285228</v>
       </c>
       <c r="N25" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285228</v>
       </c>
       <c r="O25" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285228</v>
       </c>
       <c r="P25" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285228</v>
       </c>
       <c r="Q25" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285228</v>
       </c>
       <c r="R25" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285228</v>
       </c>
       <c r="S25" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285228</v>
       </c>
       <c r="T25" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285228</v>
       </c>
       <c r="U25" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285228</v>
       </c>
       <c r="V25" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285228</v>
       </c>
       <c r="W25" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285228</v>
       </c>
       <c r="X25" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285228</v>
       </c>
       <c r="Y25" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285228</v>
       </c>
     </row>
     <row r="26">
@@ -29293,7 +29293,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>18.40108554285233</v>
+        <v>18.4010855428523</v>
       </c>
       <c r="C28" t="n">
-        <v>18.40108554285233</v>
+        <v>18.4010855428523</v>
       </c>
       <c r="D28" t="n">
-        <v>18.40108554285233</v>
+        <v>18.4010855428523</v>
       </c>
       <c r="E28" t="n">
-        <v>18.40108554285233</v>
+        <v>18.4010855428523</v>
       </c>
       <c r="F28" t="n">
-        <v>18.40108554285233</v>
+        <v>18.4010855428523</v>
       </c>
       <c r="G28" t="n">
-        <v>18.40108554285233</v>
+        <v>18.4010855428523</v>
       </c>
       <c r="H28" t="n">
-        <v>18.40108554285233</v>
+        <v>18.4010855428523</v>
       </c>
       <c r="I28" t="n">
-        <v>18.40108554285233</v>
+        <v>18.4010855428523</v>
       </c>
       <c r="J28" t="n">
-        <v>18.40108554285233</v>
+        <v>18.4010855428523</v>
       </c>
       <c r="K28" t="n">
-        <v>18.40108554285233</v>
+        <v>18.4010855428523</v>
       </c>
       <c r="L28" t="n">
-        <v>18.40108554285233</v>
+        <v>18.4010855428523</v>
       </c>
       <c r="M28" t="n">
-        <v>18.40108554285233</v>
+        <v>18.4010855428523</v>
       </c>
       <c r="N28" t="n">
-        <v>18.40108554285233</v>
+        <v>18.4010855428523</v>
       </c>
       <c r="O28" t="n">
-        <v>18.40108554285233</v>
+        <v>18.4010855428523</v>
       </c>
       <c r="P28" t="n">
-        <v>18.40108554285233</v>
+        <v>18.4010855428523</v>
       </c>
       <c r="Q28" t="n">
-        <v>18.40108554285233</v>
+        <v>18.4010855428523</v>
       </c>
       <c r="R28" t="n">
-        <v>18.40108554285233</v>
+        <v>18.4010855428523</v>
       </c>
       <c r="S28" t="n">
-        <v>18.40108554285233</v>
+        <v>18.4010855428523</v>
       </c>
       <c r="T28" t="n">
-        <v>18.40108554285233</v>
+        <v>18.4010855428523</v>
       </c>
       <c r="U28" t="n">
-        <v>18.40108554285233</v>
+        <v>18.4010855428523</v>
       </c>
       <c r="V28" t="n">
-        <v>18.40108554285233</v>
+        <v>18.4010855428523</v>
       </c>
       <c r="W28" t="n">
-        <v>18.40108554285233</v>
+        <v>18.4010855428523</v>
       </c>
       <c r="X28" t="n">
-        <v>18.40108554285233</v>
+        <v>18.4010855428523</v>
       </c>
       <c r="Y28" t="n">
-        <v>18.40108554285233</v>
+        <v>18.4010855428523</v>
       </c>
     </row>
     <row r="29">
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29566,7 +29566,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285223</v>
       </c>
       <c r="C31" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285223</v>
       </c>
       <c r="D31" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285223</v>
       </c>
       <c r="E31" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285223</v>
       </c>
       <c r="F31" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285223</v>
       </c>
       <c r="G31" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285223</v>
       </c>
       <c r="H31" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285223</v>
       </c>
       <c r="I31" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285223</v>
       </c>
       <c r="J31" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285223</v>
       </c>
       <c r="K31" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285223</v>
       </c>
       <c r="L31" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285223</v>
       </c>
       <c r="M31" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285223</v>
       </c>
       <c r="N31" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285223</v>
       </c>
       <c r="O31" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285223</v>
       </c>
       <c r="P31" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285223</v>
       </c>
       <c r="Q31" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285223</v>
       </c>
       <c r="R31" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285223</v>
       </c>
       <c r="S31" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285223</v>
       </c>
       <c r="T31" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285223</v>
       </c>
       <c r="U31" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285223</v>
       </c>
       <c r="V31" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285223</v>
       </c>
       <c r="W31" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285223</v>
       </c>
       <c r="X31" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285223</v>
       </c>
       <c r="Y31" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285223</v>
       </c>
     </row>
     <row r="32">
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30052,7 +30052,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="38">
@@ -30226,7 +30226,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.388351249000907</v>
+        <v>1.388351249000913</v>
       </c>
       <c r="H8" t="n">
-        <v>14.21845222883054</v>
+        <v>14.2184522288306</v>
       </c>
       <c r="I8" t="n">
-        <v>53.5244115271075</v>
+        <v>53.52441152710775</v>
       </c>
       <c r="J8" t="n">
-        <v>117.8345768198908</v>
+        <v>117.8345768198914</v>
       </c>
       <c r="K8" t="n">
-        <v>176.6034851900992</v>
+        <v>176.6034851901</v>
       </c>
       <c r="L8" t="n">
-        <v>219.0922397267107</v>
+        <v>219.0922397267118</v>
       </c>
       <c r="M8" t="n">
-        <v>243.7823312511306</v>
+        <v>243.7823312511318</v>
       </c>
       <c r="N8" t="n">
-        <v>247.7269842373545</v>
+        <v>247.7269842373556</v>
       </c>
       <c r="O8" t="n">
-        <v>233.9215665051017</v>
+        <v>233.9215665051028</v>
       </c>
       <c r="P8" t="n">
-        <v>199.6466450453918</v>
+        <v>199.6466450453927</v>
       </c>
       <c r="Q8" t="n">
-        <v>149.9263159405467</v>
+        <v>149.9263159405475</v>
       </c>
       <c r="R8" t="n">
-        <v>87.21101914505327</v>
+        <v>87.21101914505368</v>
       </c>
       <c r="S8" t="n">
-        <v>31.63705408660819</v>
+        <v>31.63705408660834</v>
       </c>
       <c r="T8" t="n">
-        <v>6.077507592501472</v>
+        <v>6.0775075925015</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1110680999200725</v>
+        <v>0.111068099920073</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.742833406481948</v>
+        <v>0.7428334064819514</v>
       </c>
       <c r="H9" t="n">
-        <v>7.174206846812498</v>
+        <v>7.174206846812531</v>
       </c>
       <c r="I9" t="n">
-        <v>25.57562386352321</v>
+        <v>25.57562386352333</v>
       </c>
       <c r="J9" t="n">
-        <v>70.18146670626159</v>
+        <v>70.18146670626192</v>
       </c>
       <c r="K9" t="n">
-        <v>119.9513049405521</v>
+        <v>119.9513049405526</v>
       </c>
       <c r="L9" t="n">
-        <v>161.2893324030212</v>
+        <v>161.2893324030219</v>
       </c>
       <c r="M9" t="n">
-        <v>188.2170433879918</v>
+        <v>188.2170433879926</v>
       </c>
       <c r="N9" t="n">
-        <v>193.19858846918</v>
+        <v>193.1985884691809</v>
       </c>
       <c r="O9" t="n">
-        <v>176.7389640413431</v>
+        <v>176.7389640413439</v>
       </c>
       <c r="P9" t="n">
-        <v>141.8486002254871</v>
+        <v>141.8486002254877</v>
       </c>
       <c r="Q9" t="n">
-        <v>94.82203272916936</v>
+        <v>94.82203272916979</v>
       </c>
       <c r="R9" t="n">
-        <v>46.12083202701078</v>
+        <v>46.120832027011</v>
       </c>
       <c r="S9" t="n">
-        <v>13.79780472127652</v>
+        <v>13.79780472127659</v>
       </c>
       <c r="T9" t="n">
-        <v>2.994139914723289</v>
+        <v>2.994139914723303</v>
       </c>
       <c r="U9" t="n">
-        <v>0.04887061884749659</v>
+        <v>0.04887061884749682</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6227665746030709</v>
+        <v>0.6227665746030738</v>
       </c>
       <c r="H10" t="n">
-        <v>5.536960999652763</v>
+        <v>5.536960999652788</v>
       </c>
       <c r="I10" t="n">
-        <v>18.72828935260872</v>
+        <v>18.72828935260881</v>
       </c>
       <c r="J10" t="n">
-        <v>44.02959682443712</v>
+        <v>44.02959682443732</v>
       </c>
       <c r="K10" t="n">
-        <v>72.35415294024769</v>
+        <v>72.35415294024803</v>
       </c>
       <c r="L10" t="n">
-        <v>92.58840510053295</v>
+        <v>92.58840510053338</v>
       </c>
       <c r="M10" t="n">
-        <v>97.62149132618866</v>
+        <v>97.6214913261891</v>
       </c>
       <c r="N10" t="n">
-        <v>95.30027045721366</v>
+        <v>95.30027045721408</v>
       </c>
       <c r="O10" t="n">
-        <v>88.02522456298684</v>
+        <v>88.02522456298723</v>
       </c>
       <c r="P10" t="n">
-        <v>75.32078644108412</v>
+        <v>75.32078644108446</v>
       </c>
       <c r="Q10" t="n">
-        <v>52.14820835153534</v>
+        <v>52.14820835153558</v>
       </c>
       <c r="R10" t="n">
-        <v>28.0018497998799</v>
+        <v>28.00184979988002</v>
       </c>
       <c r="S10" t="n">
-        <v>10.85312294103715</v>
+        <v>10.8531229410372</v>
       </c>
       <c r="T10" t="n">
-        <v>2.660911727849485</v>
+        <v>2.660911727849497</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03396908588744028</v>
+        <v>0.03396908588744043</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34781,13 +34781,13 @@
         <v>127.8998415301111</v>
       </c>
       <c r="L3" t="n">
-        <v>165.3469522521512</v>
+        <v>234.0017634719808</v>
       </c>
       <c r="M3" t="n">
         <v>244.5627323611424</v>
       </c>
       <c r="N3" t="n">
-        <v>244.5627323611424</v>
+        <v>104.8036895137028</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -34796,7 +34796,7 @@
         <v>185.9973484203803</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>71.10423162760989</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>3.930118828988654</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -35024,16 +35024,16 @@
         <v>263.2420339516666</v>
       </c>
       <c r="N6" t="n">
-        <v>192.6683686573558</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="O6" t="n">
         <v>263.0434990833253</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>9.770660483715774</v>
       </c>
       <c r="Q6" t="n">
-        <v>76.41420694903813</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>105.8852874652783</v>
+        <v>105.8852874652788</v>
       </c>
       <c r="K8" t="n">
-        <v>280.6590467162834</v>
+        <v>280.6590467162843</v>
       </c>
       <c r="L8" t="n">
-        <v>400.987039307174</v>
+        <v>400.987039307175</v>
       </c>
       <c r="M8" t="n">
-        <v>462.9496315166904</v>
+        <v>462.9496315166915</v>
       </c>
       <c r="N8" t="n">
-        <v>455.6608450527477</v>
+        <v>455.6608450527489</v>
       </c>
       <c r="O8" t="n">
-        <v>384.6235363461603</v>
+        <v>384.6235363461614</v>
       </c>
       <c r="P8" t="n">
-        <v>290.2123574616049</v>
+        <v>290.2123574616058</v>
       </c>
       <c r="Q8" t="n">
-        <v>139.9356167260019</v>
+        <v>139.9356167260026</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>69.43487538000373</v>
+        <v>69.43487538000406</v>
       </c>
       <c r="K9" t="n">
-        <v>246.5751029787717</v>
+        <v>246.5751029787722</v>
       </c>
       <c r="L9" t="n">
-        <v>393.5752979266062</v>
+        <v>393.5752979266069</v>
       </c>
       <c r="M9" t="n">
-        <v>511.7880732159733</v>
+        <v>511.7880732159742</v>
       </c>
       <c r="N9" t="n">
-        <v>541.1992507294002</v>
+        <v>541.1992507294011</v>
       </c>
       <c r="O9" t="n">
-        <v>428.0050388736282</v>
+        <v>428.005038873629</v>
       </c>
       <c r="P9" t="n">
-        <v>165.4181751085607</v>
+        <v>326.3369614510947</v>
       </c>
       <c r="Q9" t="n">
-        <v>164.9175463789969</v>
+        <v>3.998760036466418</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>50.08466111436483</v>
+        <v>50.08466111436518</v>
       </c>
       <c r="L10" t="n">
-        <v>120.1784303608491</v>
+        <v>120.1784303608495</v>
       </c>
       <c r="M10" t="n">
-        <v>137.2053682880293</v>
+        <v>137.2053682880297</v>
       </c>
       <c r="N10" t="n">
-        <v>139.4324428364422</v>
+        <v>139.4324428364427</v>
       </c>
       <c r="O10" t="n">
-        <v>112.6103524770265</v>
+        <v>112.6103524770269</v>
       </c>
       <c r="P10" t="n">
-        <v>72.59934570597761</v>
+        <v>72.59934570597795</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M12" t="n">
-        <v>434.7644551367891</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>248.8533625877084</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,13 +35802,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556559</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
@@ -35823,7 +35823,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,10 +35960,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>146.7850892314814</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>237.7447944281936</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
@@ -35978,10 +35978,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>522.1968161642598</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,10 +36291,10 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
         <v>39.22569997187475</v>
@@ -36434,16 +36434,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>224.1074838346401</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>401.6619767334877</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
         <v>812.5369477415663</v>
@@ -36452,10 +36452,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>30.90885570841785</v>
+        <v>30.90885570841779</v>
       </c>
       <c r="K25" t="n">
-        <v>170.1035140727629</v>
+        <v>170.1035140727628</v>
       </c>
       <c r="L25" t="n">
         <v>268.6152724227808</v>
       </c>
       <c r="M25" t="n">
-        <v>292.7109267218249</v>
+        <v>292.7109267218248</v>
       </c>
       <c r="N25" t="n">
         <v>291.6779633484559</v>
       </c>
       <c r="O25" t="n">
-        <v>254.6384370634552</v>
+        <v>254.6384370634551</v>
       </c>
       <c r="P25" t="n">
-        <v>196.7846861546531</v>
+        <v>196.784686154653</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.62678551472708</v>
+        <v>57.62678551472702</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36674,16 +36674,16 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>438.070502060531</v>
       </c>
       <c r="N27" t="n">
-        <v>515.228647684808</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
         <v>282.3637022411081</v>
@@ -36692,7 +36692,7 @@
         <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>30.90885570841785</v>
+        <v>30.90885570841782</v>
       </c>
       <c r="K28" t="n">
         <v>170.1035140727629</v>
@@ -36759,19 +36759,19 @@
         <v>268.6152724227808</v>
       </c>
       <c r="M28" t="n">
-        <v>292.7109267218249</v>
+        <v>292.7109267218248</v>
       </c>
       <c r="N28" t="n">
         <v>291.6779633484559</v>
       </c>
       <c r="O28" t="n">
-        <v>254.6384370634552</v>
+        <v>254.6384370634551</v>
       </c>
       <c r="P28" t="n">
         <v>196.7846861546531</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.62678551472708</v>
+        <v>57.62678551472705</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>71.38553859468892</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>30.90885570841785</v>
+        <v>30.90885570841775</v>
       </c>
       <c r="K31" t="n">
-        <v>170.1035140727629</v>
+        <v>170.1035140727628</v>
       </c>
       <c r="L31" t="n">
         <v>268.6152724227808</v>
       </c>
       <c r="M31" t="n">
-        <v>292.7109267218249</v>
+        <v>292.7109267218248</v>
       </c>
       <c r="N31" t="n">
-        <v>291.6779633484559</v>
+        <v>291.6779633484558</v>
       </c>
       <c r="O31" t="n">
-        <v>254.6384370634552</v>
+        <v>254.6384370634551</v>
       </c>
       <c r="P31" t="n">
-        <v>196.7846861546531</v>
+        <v>196.784686154653</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.62678551472708</v>
+        <v>57.62678551472698</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37145,16 +37145,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>70.03281601753706</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N33" t="n">
         <v>812.5369477415663</v>
@@ -37169,7 +37169,7 @@
         <v>88.0130327850741</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,7 +37236,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
         <v>304.3692416502435</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,25 +37385,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>565.9730352236573</v>
+        <v>410.0098272511731</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37473,7 +37473,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O37" t="n">
         <v>304.3692416502435</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37561,10 +37561,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.499584150206</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>351.9325470809263</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,10 +37710,10 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
         <v>246.5154907414414</v>
@@ -37780,19 +37780,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.154607095148</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
         <v>570.6060255109123</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,19 +37862,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>537.6668875336993</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37947,7 +37947,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O43" t="n">
         <v>304.3692416502435</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>329.5684730204368</v>
+        <v>510.0474576375759</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,13 +38184,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
